--- a/me/3.Javascript-Properties.xlsx
+++ b/me/3.Javascript-Properties.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D716068C-0F1E-4821-93A0-09FA553F1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EDF603-C93F-4CF9-955E-9512C0FBB339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegacyPrivatePropertiesNonReact" sheetId="1" r:id="rId1"/>
+    <sheet name="Private Properties - Reactive" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>構成</t>
   </si>
@@ -187,9 +188,6 @@
     <t>LightningWebComponent\LWC\force-app\main\default\lwc\bmiCalculator\bmiCalculator.js</t>
   </si>
   <si>
-    <t>import { LightningElement, track } from 'lwc';</t>
-  </si>
-  <si>
     <t>export default class BmiCalculator extends LightningElement {</t>
   </si>
   <si>
@@ -233,6 +231,139 @@
   </si>
   <si>
     <t>this property will be changed. But now all properties are reactive also cardTile has changed</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-input type="number" step="0.01" label="Weight in Kilogram" onchange={onWeightChange} &gt;&lt;/lightning-input&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-input type="number" step="0.01" label="Height in Meter" onchange={onHeightChange} &gt;&lt;/lightning-input&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;lightning-button label="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get BMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" onclick={</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculateBMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} &gt;&lt;/lightning-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>        &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>            Your BMI is: {bmi}</t>
+  </si>
+  <si>
+    <t>        &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>    weight;</t>
+  </si>
+  <si>
+    <t>    height;</t>
+  </si>
+  <si>
+    <t>    @track bmi;</t>
+  </si>
+  <si>
+    <t>    onWeightChange(event){</t>
+  </si>
+  <si>
+    <t>        this.weight = parseFloat(event.target.value);</t>
+  </si>
+  <si>
+    <t>    onHeightChange(event){</t>
+  </si>
+  <si>
+    <t>        this.height = parseFloat(event.target.value);</t>
+  </si>
+  <si>
+    <t>    calculateBMI(){</t>
+  </si>
+  <si>
+    <t>        try{</t>
+  </si>
+  <si>
+    <t>        this.bmi = this.weight/(this.height*this.height);</t>
+  </si>
+  <si>
+    <t>        } catch(error){</t>
+  </si>
+  <si>
+    <t>            this.bmi = undefined;</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t>import { LightningElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from 'lwc';</t>
+    </r>
+  </si>
+  <si>
+    <t>import { LightningElement } from 'lwc';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactive private property to store the bmi result because whenever the result will change(the bmi will change) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we want to show the latest output </t>
   </si>
 </sst>
 </file>
@@ -373,10 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,6 +883,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD128D21-EDDC-8D91-DC37-94932378A75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1857375" y="7400925"/>
+          <a:ext cx="5314950" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>40787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55B0160-0F8B-248A-53B3-89E8E1C44052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690843" y="13982700"/>
+          <a:ext cx="11030510" cy="5108087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991E82D7-DAF9-E480-BB05-0A0743AF0153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283824" y="10455088"/>
+          <a:ext cx="1669676" cy="6790765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1017,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V67" sqref="V67"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,32 +1480,28 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="G25" s="11" t="s">
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="11"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
+      <c r="H26" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="6"/>
@@ -1259,104 +1541,48 @@
       <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1397,62 +1623,22 @@
       <c r="B47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -1478,7 +1664,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1489,106 +1675,66 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+        <v>46</v>
+      </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+        <v>47</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" t="s">
         <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
       <c r="H59" s="6"/>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+        <v>48</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="J60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+        <v>49</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="J61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+        <v>50</v>
+      </c>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+        <v>51</v>
+      </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1598,8 +1744,8 @@
       <c r="H64" s="10"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>55</v>
+      <c r="A67" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1623,1218 +1769,231 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
       <c r="T68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
       <c r="T69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
       <c r="T70" s="6"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
       <c r="T71" s="6"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
       <c r="T72" s="6"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
       <c r="T73" s="6"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
       <c r="T78" s="6"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
       <c r="T79" s="6"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
       <c r="T80" s="6"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
       <c r="T89" s="6"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
       <c r="T90" s="6"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
       <c r="T91" s="6"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
       <c r="T92" s="6"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
       <c r="T93" s="6"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
       <c r="T94" s="6"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
       <c r="T95" s="6"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12"/>
       <c r="T96" s="6"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
       <c r="T97" s="6"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
-      <c r="S98" s="12"/>
+      <c r="B98" t="s">
+        <v>59</v>
+      </c>
       <c r="T98" s="6"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
       <c r="T99" s="6"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
       <c r="T100" s="6"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="12"/>
       <c r="T101" s="6"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
       <c r="T102" s="6"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
       <c r="T103" s="6"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
       <c r="T104" s="6"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
       <c r="T105" s="6"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
       <c r="T106" s="6"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
       <c r="T107" s="6"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
       <c r="T108" s="6"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
       <c r="T109" s="6"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
       <c r="T110" s="6"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
       <c r="T111" s="6"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
       <c r="T112" s="6"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
       <c r="T113" s="6"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
-      <c r="S114" s="12"/>
       <c r="T114" s="6"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
-      <c r="S115" s="12"/>
       <c r="T115" s="6"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
       <c r="T116" s="6"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
       <c r="T117" s="6"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
       <c r="T118" s="6"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
       <c r="T119" s="6"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
-      <c r="S120" s="12"/>
       <c r="T120" s="6"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="12"/>
       <c r="T121" s="6"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="12"/>
-      <c r="S122" s="12"/>
       <c r="T122" s="6"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -2863,4 +2022,1318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C216455-1910-48D1-8363-56CB846305CC}">
+  <dimension ref="A3:T101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V84" sqref="V84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="G11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="6"/>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="6"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Javascript-Properties.xlsx
+++ b/me/3.Javascript-Properties.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EDF603-C93F-4CF9-955E-9512C0FBB339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD145BB-F9DF-473B-A321-0AF4CDCB196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegacyPrivatePropertiesNonReact" sheetId="1" r:id="rId1"/>
     <sheet name="Private Properties - Reactive" sheetId="2" r:id="rId2"/>
+    <sheet name="Getter Properties" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>構成</t>
   </si>
@@ -363,7 +364,64 @@
     <t xml:space="preserve">Reactive private property to store the bmi result because whenever the result will change(the bmi will change) </t>
   </si>
   <si>
-    <t xml:space="preserve">we want to show the latest output </t>
+    <t>we want to show the latest output.</t>
+  </si>
+  <si>
+    <t>The @track decorator is no more required for the primitive data types in Lightning Web Components. That means</t>
+  </si>
+  <si>
+    <t>all the private properties that we declare in our component they are reactive by nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before the spring'20 update, there was only one way to make it private property as a reactive property and that was </t>
+  </si>
+  <si>
+    <t>requied for non primitive types it means for the object properties or for the array properties</t>
+  </si>
+  <si>
+    <r>
+      <t>using the track decorator. But now this track decorator is no more required for the primitive data types.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It is still </t>
+    </r>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-button label="Get BMI" onclick={calculateBMI} &gt;&lt;/lightning-button&gt;</t>
+  </si>
+  <si>
+    <t>            {bmiValue}</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>    bmi;</t>
+  </si>
+  <si>
+    <t>    get bmiValue(){</t>
+  </si>
+  <si>
+    <t>        if(this.bmi === undefined){</t>
+  </si>
+  <si>
+    <t>            return "";</t>
+  </si>
+  <si>
+    <t>        return `Your BMI is: ${this.bmi}`;</t>
+  </si>
+  <si>
+    <t>to do some computationon our properties</t>
   </si>
 </sst>
 </file>
@@ -492,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -506,8 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,6 +1099,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7E09D6-156C-8BF0-60C1-6D5B3CBAD602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1019175" y="7400925"/>
+          <a:ext cx="57150" cy="6000750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>68237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E6FBE6-F88A-A289-C83E-784BC88D4B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681318" y="15306675"/>
+          <a:ext cx="11040035" cy="5145062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2026,20 +2189,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C216455-1910-48D1-8363-56CB846305CC}">
-  <dimension ref="A3:T101"/>
+  <dimension ref="A3:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2054,84 +2217,96 @@
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="H12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="G15" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="H16" t="s">
         <v>9</v>
@@ -2264,136 +2439,48 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,254 +2518,231 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
       <c r="H54" s="6"/>
       <c r="I54" t="s">
         <v>26</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
       <c r="H55" s="6"/>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
       <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
       <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="6"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
       <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="6"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
       <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -2718,596 +2782,110 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
       <c r="T78" s="6"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
       <c r="T79" s="6"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
       <c r="T80" s="6"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
       <c r="T89" s="6"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
       <c r="T90" s="6"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
       <c r="T91" s="6"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
       <c r="T92" s="6"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
       <c r="T93" s="6"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
       <c r="T94" s="6"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
       <c r="T95" s="6"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
       <c r="T96" s="6"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
       <c r="T97" s="6"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
       <c r="T98" s="6"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
       <c r="T99" s="6"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
       <c r="T100" s="6"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -3334,6 +2912,1405 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE02873-0194-4CE4-86AA-AC0B37018723}">
+  <dimension ref="A3:T108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="6"/>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me/3.Javascript-Properties.xlsx
+++ b/me/3.Javascript-Properties.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD145BB-F9DF-473B-A321-0AF4CDCB196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A446D-7B06-42D5-B9C5-E3FF1956F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegacyPrivatePropertiesNonReact" sheetId="1" r:id="rId1"/>
     <sheet name="Private Properties - Reactive" sheetId="2" r:id="rId2"/>
     <sheet name="Getter Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="Public Properties" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
   <si>
     <t>構成</t>
   </si>
@@ -422,6 +423,218 @@
   </si>
   <si>
     <t>to do some computationon our properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The limitation of private properties they can only be accessed from the same component or the controller and the template file of the same component. They can not accessed outside the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">particular component. In Lightning Web Component we have something called public properties as well which can be supplied by a parent component and which can be accessed outside the </t>
+  </si>
+  <si>
+    <t>current component as well.</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRoom\meetingRoom.js</t>
+  </si>
+  <si>
+    <t>meetingRoom</t>
+  </si>
+  <si>
+    <t>import { LightningElement, api } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class MeetingRoom extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @api meetingRoomInfo = {roomName:'A-01', roomCapacity:'12'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>info and it will be supplied by a parent component to this component</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRoom\meetingRoom.html</t>
+  </si>
+  <si>
+    <t>    &lt;div class="slds-p-around_medium lgc-bg"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-tile label={meetingRoomInfo.roomName} href="/path/to/somewhere"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;p class="slds-truncate" title={meetingRoomInfo.roomCapacity}&gt;Room Capacity: {meetingRoomInfo.roomCapacity}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/lightning-tile&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>lightning-tile</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRoom\meetingRoom.css</t>
+  </si>
+  <si>
+    <t>.lgc-bg {</t>
+  </si>
+  <si>
+    <t>    background-color: rgb(242, 242, 242);</t>
+  </si>
+  <si>
+    <t>.lgc-bg-inverse {</t>
+  </si>
+  <si>
+    <t>    background-color: rgb(22, 50, 92);</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRooms\meetingRooms.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Meeting Rooms"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;template for:each={meetingRoomsInfo} for:item="room"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li key={room.roomName} style="padding: 10px"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;c-meeting-room meeting-room-info={room}&gt;&lt;/c-meeting-room&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRooms\meetingRooms.js</t>
+  </si>
+  <si>
+    <t>export default class MeetingRooms extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    meetingRoomsInfo = [</t>
+  </si>
+  <si>
+    <t>        {roomName:'A-01', roomCapacity:'12'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'A-02', roomCapacity:'16'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'A-03', roomCapacity:'12'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'B-01', roomCapacity:'5'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'B-02', roomCapacity:'8'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'B-03', roomCapacity:'10'},</t>
+  </si>
+  <si>
+    <t>        {roomName:'C-01', roomCapacity:'20'}</t>
+  </si>
+  <si>
+    <t>    ];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To declare a public property we need to decorate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> decorator, this meetingRoomInfo hold the meeting room  </t>
+    </r>
+  </si>
+  <si>
+    <t>c-meeting-room: Declare MeetingRoom child component</t>
+  </si>
+  <si>
+    <t>c: namespace</t>
+  </si>
+  <si>
+    <t>MeetingRoom: component name, it is converted from the camelCase to Kebab Case</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>meeting-room-info: converted meetingRoomInfo public property in child component to Kebab</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\meetingRooms\meetingRooms.js-meta.xml</t>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;isExposed&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isExposed&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>meetingRoom.html</t>
+  </si>
+  <si>
+    <t>meetingRoom.css</t>
+  </si>
+  <si>
+    <t>meetingRoom.js</t>
+  </si>
+  <si>
+    <t>meetingRooms</t>
+  </si>
+  <si>
+    <t>meetingRooms.html</t>
+  </si>
+  <si>
+    <t>meetingRooms.js</t>
   </si>
 </sst>
 </file>
@@ -550,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -564,11 +777,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,6 +1411,307 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CCB5A6-5AF2-0D04-98DD-3017F47FD029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="9629775"/>
+          <a:ext cx="10477500" cy="5172338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ABFB89-5CF2-3109-E2D2-2249BE644EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5753100" y="9848850"/>
+          <a:ext cx="6638925" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>322988</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>189995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608CDE6-997D-D80D-5CCB-4FF4930C12F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="15011400"/>
+          <a:ext cx="6895238" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EBAC5D-9029-C77C-F2D4-35570960F875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3067050" y="11363325"/>
+          <a:ext cx="6867525" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>33720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73723671-A2CE-CE81-5C2D-6332A4A2529C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="28461361"/>
+          <a:ext cx="11348197" cy="10434359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206B76FB-B90B-AD0C-AAF7-44CA96F0FECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1152525" y="8353425"/>
+          <a:ext cx="1181100" cy="12515850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1466,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T123"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C216455-1910-48D1-8363-56CB846305CC}">
   <dimension ref="A3:U101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -2294,7 +2805,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="6"/>
@@ -2583,16 +3094,6 @@
       <c r="J55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
       <c r="U55" s="6"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
@@ -2600,19 +3101,9 @@
         <v>71</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
       <c r="U56" s="6"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
@@ -2620,37 +3111,17 @@
         <v>51</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
       <c r="U57" s="6"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="H58" s="6"/>
-      <c r="J58" s="15" t="s">
+      <c r="J58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
       <c r="U58" s="6"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
@@ -2658,19 +3129,9 @@
         <v>72</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="J59" s="15" t="s">
+      <c r="J59" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
@@ -2678,7 +3139,7 @@
         <v>73</v>
       </c>
       <c r="H60" s="6"/>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="K60" s="9"/>
@@ -2921,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE02873-0194-4CE4-86AA-AC0B37018723}">
   <dimension ref="A3:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3485,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="6"/>
@@ -3169,136 +3630,48 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
       <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3336,265 +3709,140 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
       <c r="H71" s="6"/>
       <c r="I71" t="s">
         <v>26</v>
@@ -3607,55 +3855,30 @@
       <c r="B72" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -3695,596 +3918,110 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
       <c r="T89" s="6"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
       <c r="T90" s="6"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
       <c r="T91" s="6"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
       <c r="T92" s="6"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
       <c r="T93" s="6"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
       <c r="T94" s="6"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
       <c r="T95" s="6"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
       <c r="T96" s="6"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
       <c r="T97" s="6"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
       <c r="T98" s="6"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
       <c r="T99" s="6"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
       <c r="T100" s="6"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
       <c r="T101" s="6"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
       <c r="T102" s="6"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
       <c r="T103" s="6"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
       <c r="T104" s="6"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
       <c r="T105" s="6"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
       <c r="T106" s="6"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
       <c r="T107" s="6"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -4313,4 +4050,1258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4D657-12D2-4E50-9BF8-88E286DCFC48}">
+  <dimension ref="A3:AG209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="G29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="G33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="J49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4"/>
+      <c r="P54" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="4"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N55" s="6"/>
+      <c r="P55" s="5"/>
+      <c r="AG55" s="6"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="P56" s="5"/>
+      <c r="AG56" s="6"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="P57" s="5"/>
+      <c r="AG57" s="6"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="P58" s="5"/>
+      <c r="AG58" s="6"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="P59" s="5"/>
+      <c r="AG59" s="6"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="10"/>
+      <c r="P60" s="5"/>
+      <c r="AG60" s="6"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P61" s="5"/>
+      <c r="AG61" s="6"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P62" s="5"/>
+      <c r="AG62" s="6"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="AG63" s="6"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="P64" s="5"/>
+      <c r="AG64" s="6"/>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="P65" s="5"/>
+      <c r="AG65" s="6"/>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="P66" s="5"/>
+      <c r="AG66" s="6"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="P67" s="5"/>
+      <c r="AG67" s="6"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="P68" s="5"/>
+      <c r="AG68" s="6"/>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="P69" s="5"/>
+      <c r="AG69" s="6"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="P70" s="5"/>
+      <c r="AG70" s="6"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P71" s="5"/>
+      <c r="AG71" s="6"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P72" s="5"/>
+      <c r="AG72" s="6"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P73" s="5"/>
+      <c r="AG73" s="6"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P74" s="5"/>
+      <c r="AG74" s="6"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P75" s="5"/>
+      <c r="AG75" s="6"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P76" s="5"/>
+      <c r="AG76" s="6"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P77" s="5"/>
+      <c r="AG77" s="6"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P78" s="5"/>
+      <c r="AG78" s="6"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P79" s="5"/>
+      <c r="AG79" s="6"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="P80" s="5"/>
+      <c r="AG80" s="6"/>
+    </row>
+    <row r="81" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P81" s="5"/>
+      <c r="AG81" s="6"/>
+    </row>
+    <row r="82" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P82" s="5"/>
+      <c r="AG82" s="6"/>
+    </row>
+    <row r="83" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P83" s="5"/>
+      <c r="AG83" s="6"/>
+    </row>
+    <row r="84" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P84" s="5"/>
+      <c r="AG84" s="6"/>
+    </row>
+    <row r="85" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P85" s="5"/>
+      <c r="AG85" s="6"/>
+    </row>
+    <row r="86" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P86" s="5"/>
+      <c r="AG86" s="6"/>
+    </row>
+    <row r="87" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P87" s="5"/>
+      <c r="AG87" s="6"/>
+    </row>
+    <row r="88" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P88" s="5"/>
+      <c r="AG88" s="6"/>
+    </row>
+    <row r="89" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P89" s="5"/>
+      <c r="AG89" s="6"/>
+    </row>
+    <row r="90" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P90" s="5"/>
+      <c r="AG90" s="6"/>
+    </row>
+    <row r="91" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P91" s="5"/>
+      <c r="AG91" s="6"/>
+    </row>
+    <row r="92" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P92" s="5"/>
+      <c r="AG92" s="6"/>
+    </row>
+    <row r="93" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P93" s="5"/>
+      <c r="AG93" s="6"/>
+    </row>
+    <row r="94" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P94" s="5"/>
+      <c r="AG94" s="6"/>
+    </row>
+    <row r="95" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P95" s="5"/>
+      <c r="AG95" s="6"/>
+    </row>
+    <row r="96" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P96" s="5"/>
+      <c r="AG96" s="6"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P97" s="5"/>
+      <c r="AG97" s="6"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P98" s="5"/>
+      <c r="AG98" s="6"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P99" s="5"/>
+      <c r="AG99" s="6"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P100" s="5"/>
+      <c r="AG100" s="6"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P101" s="5"/>
+      <c r="AG101" s="6"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P102" s="5"/>
+      <c r="AG102" s="6"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P103" s="5"/>
+      <c r="AG103" s="6"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P104" s="5"/>
+      <c r="AG104" s="6"/>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P105" s="8"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="9"/>
+      <c r="AF105" s="9"/>
+      <c r="AG105" s="10"/>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I114" s="6"/>
+      <c r="J114" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="4"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="K115" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="K116" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="10"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I117" s="6"/>
+      <c r="K117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="6"/>
+      <c r="K118" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="10"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="10"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="4"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="T167" s="6"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="T168" s="6"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="T169" s="6"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="T170" s="6"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="T171" s="6"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="T172" s="6"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="T173" s="6"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="T174" s="6"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="T175" s="6"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="T176" s="6"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="T177" s="6"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="T178" s="6"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="T179" s="6"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="T180" s="6"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="T181" s="6"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="T182" s="6"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="T183" s="6"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="T184" s="6"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="T185" s="6"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="T186" s="6"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="T187" s="6"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="T188" s="6"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="T189" s="6"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="T190" s="6"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="T191" s="6"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="T192" s="6"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="T193" s="6"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="T194" s="6"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="T195" s="6"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="T196" s="6"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="T197" s="6"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="T198" s="6"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="T199" s="6"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="T200" s="6"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="T201" s="6"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="T202" s="6"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="T203" s="6"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="T204" s="6"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="T205" s="6"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="T206" s="6"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="T207" s="6"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="T208" s="6"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+      <c r="M209" s="9"/>
+      <c r="N209" s="9"/>
+      <c r="O209" s="9"/>
+      <c r="P209" s="9"/>
+      <c r="Q209" s="9"/>
+      <c r="R209" s="9"/>
+      <c r="S209" s="9"/>
+      <c r="T209" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/3.Javascript-Properties.xlsx
+++ b/me/3.Javascript-Properties.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A446D-7B06-42D5-B9C5-E3FF1956F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C8EAD-B9CA-4FC2-A80F-21FFF1F14AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegacyPrivatePropertiesNonReact" sheetId="1" r:id="rId1"/>
     <sheet name="Private Properties - Reactive" sheetId="2" r:id="rId2"/>
     <sheet name="Getter Properties" sheetId="3" r:id="rId3"/>
     <sheet name="Public Properties" sheetId="4" r:id="rId4"/>
+    <sheet name="Public Boolean Properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
   <si>
     <t>構成</t>
   </si>
@@ -635,6 +636,61 @@
   </si>
   <si>
     <t>meetingRooms.js</t>
+  </si>
+  <si>
+    <t>    @api showRoomInfo = false;</t>
+  </si>
+  <si>
+    <t>    &lt;template if:true={showRoomInfo}&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="slds-p-around_medium lgc-bg"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;lightning-tile label={meetingRoomInfo.roomName} href="/path/to/somewhere"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;p class="slds-truncate" title={meetingRoomInfo.roomCapacity}&gt;Room Capacity: {meetingRoomInfo.roomCapacity}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/lightning-tile&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/template&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    &lt;c-meeting-room meeting-room-info={room} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show-room-info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&lt;/c-meeting-room&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>We can pass public properties its value from our parent component to child component</t>
+  </si>
+  <si>
+    <t>pass value true</t>
   </si>
 </sst>
 </file>
@@ -763,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -779,6 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1712,6 +1770,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29066C55-BF0A-AD7E-10F5-F1E47FB37192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4876800" y="12725400"/>
+          <a:ext cx="2495550" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>33720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9925CA52-CF67-4FEE-83F4-331426189443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="29223361"/>
+          <a:ext cx="11348197" cy="10434359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FC9A19-F943-C736-3B86-2EF435F9CB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1933575" y="9696450"/>
+          <a:ext cx="2047875" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4056,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4D657-12D2-4E50-9BF8-88E286DCFC48}">
   <dimension ref="A3:AG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,4 +5522,941 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F867506-8785-4200-8438-9DC1672C795F}">
+  <dimension ref="A3:T131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="G28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="6"/>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="6"/>
+      <c r="L68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Javascript-Properties.xlsx
+++ b/me/3.Javascript-Properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C8EAD-B9CA-4FC2-A80F-21FFF1F14AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4E41BA-F7AB-4BD8-A21B-F03104E65D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="166">
   <si>
     <t>構成</t>
   </si>
@@ -819,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -835,8 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4274,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4D657-12D2-4E50-9BF8-88E286DCFC48}">
   <dimension ref="A3:AG209"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
@@ -5528,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F867506-8785-4200-8438-9DC1672C795F}">
   <dimension ref="A3:T131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="P33:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,35 +5636,35 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="H17" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="H18" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="G21" s="7"/>
       <c r="H21" t="s">
@@ -5674,7 +5672,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="G22" s="7"/>
       <c r="H22" t="s">
@@ -5682,7 +5680,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="G23" s="7"/>
       <c r="H23" t="s">
@@ -5690,70 +5688,81 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="15"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="s">
+      <c r="H25" t="s">
         <v>150</v>
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="7" t="s">
         <v>151</v>
       </c>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="G28" s="15" t="s">
+      <c r="G28" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="15"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="7" t="s">
         <v>153</v>
       </c>
       <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
+      <c r="H30" t="s">
         <v>154</v>
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="G32" t="s">
         <v>18</v>
@@ -5812,55 +5821,30 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5900,119 +5884,42 @@
       <c r="B51" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
       <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
       <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -6054,65 +5961,30 @@
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
       <c r="J67" s="6"/>
       <c r="K67" t="s">
         <v>26</v>
@@ -6125,13 +5997,6 @@
       <c r="B68" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
       <c r="J68" s="6"/>
       <c r="L68" t="s">
         <v>165</v>
@@ -6141,39 +6006,18 @@
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
